--- a/자유수강권/로보로보(수강).xlsx
+++ b/자유수강권/로보로보(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>주야</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>윤도현</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>권범수</t>
   </si>
   <si>
     <t>송희근</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,10 +790,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -810,10 +816,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -830,16 +836,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -856,16 +862,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -882,24 +888,50 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.5">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
